--- a/biology/Biochimie/Peptidoglycane/Peptidoglycane.xlsx
+++ b/biology/Biochimie/Peptidoglycane/Peptidoglycane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le peptidoglycane[1] (ou muréine, ou mucocomplexe, ou mucopeptide) est un composant de la paroi bactérienne maintenant la forme des cellules et assurant une protection mécanique contre la pression osmotique. Il forme une couche fine chez les bactéries à Gram négatif et une couche épaisse chez les bactéries à Gram positif. C'est un élément dit constant et discriminant chez toutes les bactéries, au même titre que la présence d'un génome ADN et d'une paroi. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peptidoglycane (ou muréine, ou mucocomplexe, ou mucopeptide) est un composant de la paroi bactérienne maintenant la forme des cellules et assurant une protection mécanique contre la pression osmotique. Il forme une couche fine chez les bactéries à Gram négatif et une couche épaisse chez les bactéries à Gram positif. C'est un élément dit constant et discriminant chez toutes les bactéries, au même titre que la présence d'un génome ADN et d'une paroi. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est constitué d'une partie glucidique (polysaccharide) et d'une partie peptidique.
 Le polysaccharide est un polymère de glycosaminopeptide où la N-acétyl-glucosamine (NAG) et l'acide N-acétyl-muramique (NAM) sont liés par des liaisons osidiques 
@@ -553,7 +567,9 @@
           <t>Structure chimique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La N-acétylglucosamine est un glucose lié en 2C par une amine secondaire au groupement acétyle;
 L'acide N-acétylmuramique = NAG + acide lactique lié par une liaison éther-oxyde au C3 du glucose;
@@ -585,7 +601,9 @@
           <t>Effet des pénicillines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pénicillines inhibent la dernière étape de la synthèse du peptidoglycane, une étape de réticulation, la transpeptidation. La transpeptidation est le raccordement du peptidoglycane nouvellement formé avec l'ancien. Cette synthèse étant inhibée, des mécanismes de lyse cellulaire (encore non totalement expliqués) se déclenchent : les pénicillines ont donc un effet bactéricide, comme les autres antibiotiques de la famille des bêta-lactamines.
 </t>
